--- a/data/Campus.xlsx
+++ b/data/Campus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lafe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\database_project-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEECD2D-8D2F-415E-A90B-BE38B0F37FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3490264-E7E6-4AB4-96CE-0B75B3F5C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,77 +405,78 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="3" width="15.77734375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
